--- a/starter-analysis-exercise/data/raw-data/exampledata2.xlsx
+++ b/starter-analysis-exercise/data/raw-data/exampledata2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1B0400-91DC-4479-905F-9A91D902E8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFBD0CC-357B-47F8-80E7-A252D9716E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="945" windowWidth="48840" windowHeight="21645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13590" yWindow="-45" windowWidth="15315" windowHeight="15615" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>Height</t>
   </si>
@@ -47,12 +47,6 @@
     <t>Variable Definition</t>
   </si>
   <si>
-    <t>weight in kilograms</t>
-  </si>
-  <si>
-    <t>height in centimeters</t>
-  </si>
-  <si>
     <t>Allowed Values</t>
   </si>
   <si>
@@ -62,16 +56,55 @@
     <t>N</t>
   </si>
   <si>
-    <t>numeric value &gt;0 or NA</t>
-  </si>
-  <si>
     <t>M/F/O/NA</t>
   </si>
   <si>
     <t>Gender</t>
   </si>
   <si>
-    <t>identified gender (male/female/other)</t>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Identified age</t>
+  </si>
+  <si>
+    <t>numeric value&gt; 0</t>
+  </si>
+  <si>
+    <t>numeric value &gt; 0 or NA</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Identified gender (male/female/other)</t>
+  </si>
+  <si>
+    <t>Weight in kilograms</t>
+  </si>
+  <si>
+    <t>Height in centimeters</t>
+  </si>
+  <si>
+    <t>Identified race/ethnicity (Black/White/Hispanic/Native American/Asian/Pacific Islander/other</t>
+  </si>
+  <si>
+    <t>B/W/H/N/A/PI/O/NA</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>PI</t>
   </si>
 </sst>
 </file>
@@ -115,9 +148,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,174 +437,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>180</v>
+      </c>
+      <c r="B2" s="3">
+        <v>80</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>175</v>
+      </c>
+      <c r="B3" s="3">
+        <v>70</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>60</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>178</v>
+      </c>
+      <c r="B5" s="3">
+        <v>76</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>180</v>
-      </c>
-      <c r="B2">
-        <v>80</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>192</v>
+      </c>
+      <c r="B6" s="3">
+        <v>90</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>55</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>156</v>
+      </c>
+      <c r="B8" s="3">
+        <v>90</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>166</v>
+      </c>
+      <c r="B9" s="3">
+        <v>110</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>175</v>
-      </c>
-      <c r="B3">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D9" s="3">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>155</v>
+      </c>
+      <c r="B10" s="3">
+        <v>54</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>145</v>
+      </c>
+      <c r="B11" s="3">
+        <v>7000</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>165</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>178</v>
-      </c>
-      <c r="B5">
-        <v>76</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D12" s="3">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>133</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>192</v>
-      </c>
-      <c r="B6">
-        <v>90</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
+      <c r="D13" s="3">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>166</v>
+      </c>
+      <c r="B14" s="3">
         <v>55</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>156</v>
-      </c>
-      <c r="B8">
-        <v>90</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>166</v>
-      </c>
-      <c r="B9">
-        <v>110</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>155</v>
-      </c>
-      <c r="B10">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D14" s="3">
+        <v>14</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>154</v>
+      </c>
+      <c r="B15" s="3">
+        <v>50</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>145</v>
-      </c>
-      <c r="B11">
-        <v>7000</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>165</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>133</v>
-      </c>
-      <c r="B13">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>166</v>
-      </c>
-      <c r="B14">
-        <v>55</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>154</v>
-      </c>
-      <c r="B15">
-        <v>50</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
+      <c r="E15" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -575,16 +705,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A2C8F0-62B4-4D60-B490-D490A3E0B40F}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="84.28515625" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -596,7 +726,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -604,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -615,21 +745,43 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
